--- a/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
+++ b/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>RunMode</t>
   </si>
@@ -86,13 +86,52 @@
     <t>launchBrowser</t>
   </si>
   <si>
-    <t>VerifyPage</t>
-  </si>
-  <si>
-    <t>EnterText</t>
-  </si>
-  <si>
     <t>click</t>
+  </si>
+  <si>
+    <t>Test02</t>
+  </si>
+  <si>
+    <t>Test Gmail Login</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>Click on gmail link</t>
+  </si>
+  <si>
+    <t>verify the gmail login page should display</t>
+  </si>
+  <si>
+    <t>Enter text in username field</t>
+  </si>
+  <si>
+    <t>Enter text in password field</t>
+  </si>
+  <si>
+    <t>Click on Login Button</t>
+  </si>
+  <si>
+    <t>Verify that user should logged in</t>
+  </si>
+  <si>
+    <t>verifyPage</t>
+  </si>
+  <si>
+    <t>enterText</t>
   </si>
 </sst>
 </file>
@@ -181,6 +220,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -228,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +553,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -519,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,7 +669,124 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
+++ b/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>RunMode</t>
   </si>
@@ -132,13 +132,22 @@
   </si>
   <si>
     <t>enterText</t>
+  </si>
+  <si>
+    <t>googleSearchTextbox</t>
+  </si>
+  <si>
+    <t>searboxSubmitButton</t>
+  </si>
+  <si>
+    <t>http://www.google.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +167,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,17 +218,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,7 +595,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,8 +605,8 @@
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -629,6 +649,9 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -657,6 +680,9 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -671,6 +697,9 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -790,6 +819,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
+++ b/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
@@ -537,15 +537,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,19 +595,19 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
+++ b/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,14 +159,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,15 +212,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,16 +541,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -594,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,28 +603,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -649,7 +641,7 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
     </row>

--- a/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
+++ b/WD_KeywordDrivenFramework/src/com/testscript/Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>RunMode</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>http://www.google.com</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +174,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +211,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -214,13 +247,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,51 +568,53 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -587,19 +628,20 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,184 +671,188 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
